--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori1/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori1/67/incorrect_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Critically Low Voltage . Aircraft will land .</t>
+          <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Critically Low Voltage</t>
+          <t>Home Point not updated</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -537,21 +537,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Propulsion output is limited to ensure the health of the battery</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-13</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -605,31 +605,6 @@
         </is>
       </c>
       <c r="E7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>19</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Obstacle Avoidance is not available</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>10-14</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
         <is>
           <t>False</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori1/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori1/67/incorrect_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak . Home Point not updated .</t>
+          <t>Critically Low Voltage . Aircraft will land .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Home Point not updated</t>
+          <t>Critically Low Voltage</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -537,21 +537,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+          <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>3-13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -605,6 +605,31 @@
         </is>
       </c>
       <c r="E7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>19</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Obstacle Avoidance is not available</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10-14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>False</t>
         </is>
